--- a/Summary_Data/Figure_3BC.xlsx
+++ b/Summary_Data/Figure_3BC.xlsx
@@ -399,13 +399,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.0313910877389026</v>
+        <v>0.03139108773890261</v>
       </c>
       <c r="D2">
         <v>0.037106479793896</v>
       </c>
       <c r="E2">
-        <v>0.00157842099781741</v>
+        <v>0.001578420997817406</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -426,10 +426,10 @@
         <v>-0.00854405601557638</v>
       </c>
       <c r="D3">
-        <v>0.0408494208899678</v>
+        <v>0.04084942088996778</v>
       </c>
       <c r="E3">
-        <v>0.00173763676963</v>
+        <v>0.001737636769629995</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -447,13 +447,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.0070231204931407</v>
+        <v>0.007023120493140702</v>
       </c>
       <c r="D4">
-        <v>0.039370596992933</v>
+        <v>0.03937059699293303</v>
       </c>
       <c r="E4">
-        <v>0.00167473113416905</v>
+        <v>0.001674731134169048</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -471,13 +471,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.0087360045189427</v>
+        <v>0.008736004518942696</v>
       </c>
       <c r="D5">
-        <v>0.0390708973489488</v>
+        <v>0.03907089734894875</v>
       </c>
       <c r="E5">
-        <v>0.00166198262733869</v>
+        <v>0.001661982627338686</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         <v>0.00867071523527114</v>
       </c>
       <c r="D6">
-        <v>0.0379735852603492</v>
+        <v>0.03797358526034925</v>
       </c>
       <c r="E6">
-        <v>0.00161530559272304</v>
+        <v>0.001615305592723043</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.00803078782046707</v>
+        <v>0.008030787820467072</v>
       </c>
       <c r="D7">
-        <v>0.0388019737480381</v>
+        <v>0.03880197374803806</v>
       </c>
       <c r="E7">
-        <v>0.00165054325985237</v>
+        <v>0.001650543259852365</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.00825788755323705</v>
+        <v>0.008257887553237047</v>
       </c>
       <c r="D8">
-        <v>0.0382581712793158</v>
+        <v>0.03825817127931579</v>
       </c>
       <c r="E8">
-        <v>0.00162741120205373</v>
+        <v>0.001627411202053733</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.00888112369656723</v>
+        <v>0.008881123696567234</v>
       </c>
       <c r="D9">
-        <v>0.0377543334815563</v>
+        <v>0.03775433348155625</v>
       </c>
       <c r="E9">
-        <v>0.0016063575129795</v>
+        <v>0.001606357512979496</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.00789095539686367</v>
+        <v>0.007890955396863669</v>
       </c>
       <c r="D10">
-        <v>0.0390485909138127</v>
+        <v>0.03904859091381273</v>
       </c>
       <c r="E10">
-        <v>0.00166142510279804</v>
+        <v>0.001661425102798036</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         <v>0.00804082735532689</v>
       </c>
       <c r="D11">
-        <v>0.0381072982026052</v>
+        <v>0.03810729820260517</v>
       </c>
       <c r="E11">
-        <v>0.00162137532627901</v>
+        <v>0.001621375326279011</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.00692396434012729</v>
+        <v>0.006923964340127287</v>
       </c>
       <c r="D12">
-        <v>0.0378351964437644</v>
+        <v>0.03783519644376444</v>
       </c>
       <c r="E12">
-        <v>0.00160979804059279</v>
+        <v>0.001609798040592792</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.00748745115633093</v>
+        <v>0.007487451156330927</v>
       </c>
       <c r="D13">
-        <v>0.0392180688013395</v>
+        <v>0.03921806880133952</v>
       </c>
       <c r="E13">
-        <v>0.00166863598570359</v>
+        <v>0.001668635985703586</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.00687444265432766</v>
+        <v>0.006874442654327664</v>
       </c>
       <c r="D14">
-        <v>0.037394294394317</v>
+        <v>0.03739429439431696</v>
       </c>
       <c r="E14">
-        <v>0.00159103870214588</v>
+        <v>0.001591038702145882</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.00646315631348769</v>
+        <v>0.006463156313487689</v>
       </c>
       <c r="D15">
-        <v>0.0377701748371</v>
+        <v>0.03777017483710004</v>
       </c>
       <c r="E15">
-        <v>0.00160741031868546</v>
+        <v>0.001607410318685459</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.00584892689722796</v>
+        <v>0.005848926897227959</v>
       </c>
       <c r="D16">
         <v>0.0379409485926453</v>
       </c>
       <c r="E16">
-        <v>0.00161467805038138</v>
+        <v>0.001614678050381381</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.00733865387325352</v>
+        <v>0.007338653873253517</v>
       </c>
       <c r="D17">
         <v>0.0383173761527353</v>
       </c>
       <c r="E17">
-        <v>0.00163069792709458</v>
+        <v>0.001630697927094579</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.00558343029643136</v>
+        <v>0.005583430296431364</v>
       </c>
       <c r="D18">
         <v>0.0376320898562817</v>
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.00669628208015615</v>
+        <v>0.006696282080156154</v>
       </c>
       <c r="D19">
-        <v>0.0382230197210224</v>
+        <v>0.03822301972102242</v>
       </c>
       <c r="E19">
-        <v>0.00162668233800547</v>
+        <v>0.001626682338005469</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.00604016805701256</v>
+        <v>0.006040168057012564</v>
       </c>
       <c r="D20">
-        <v>0.0377033662849311</v>
+        <v>0.03770336628493105</v>
       </c>
       <c r="E20">
-        <v>0.00160456710293133</v>
+        <v>0.001604567102931335</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.00520444990082</v>
+        <v>0.005204449900819997</v>
       </c>
       <c r="D21">
-        <v>0.0384069155554793</v>
+        <v>0.03840691555547931</v>
       </c>
       <c r="E21">
-        <v>0.00163450851469499</v>
+        <v>0.001634508514694991</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.00458141523723408</v>
+        <v>0.004581415237234075</v>
       </c>
       <c r="D22">
-        <v>0.038610364088869</v>
+        <v>0.03861036408886905</v>
       </c>
       <c r="E22">
-        <v>0.00164355430218077</v>
+        <v>0.001643554302180766</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.00576591781983488</v>
+        <v>0.005765917819834884</v>
       </c>
       <c r="D23">
-        <v>0.0374960738696719</v>
+        <v>0.03749607386967188</v>
       </c>
       <c r="E23">
-        <v>0.00159612153310809</v>
+        <v>0.001596121533108085</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.00528871458040561</v>
+        <v>0.005288714580405609</v>
       </c>
       <c r="D24">
-        <v>0.0374323406893641</v>
+        <v>0.03743234068936405</v>
       </c>
       <c r="E24">
-        <v>0.00159340855836261</v>
+        <v>0.001593408558362613</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.00603307518677441</v>
+        <v>0.006033075186774413</v>
       </c>
       <c r="D25">
-        <v>0.0376800897213417</v>
+        <v>0.03768008972134169</v>
       </c>
       <c r="E25">
-        <v>0.00160395466423281</v>
+        <v>0.001603954664232807</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.00438010530273057</v>
+        <v>0.004380105302730568</v>
       </c>
       <c r="D26">
-        <v>0.0378241182638612</v>
+        <v>0.03782411826386122</v>
       </c>
       <c r="E26">
-        <v>0.00161008562767438</v>
+        <v>0.001610085627674383</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.00510451477585188</v>
+        <v>0.005104514775851884</v>
       </c>
       <c r="D27">
-        <v>0.0384746956051206</v>
+        <v>0.03847469560512062</v>
       </c>
       <c r="E27">
-        <v>0.00163777920719275</v>
+        <v>0.001637779207192751</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.00503113068359142</v>
+        <v>0.005031130683591419</v>
       </c>
       <c r="D28">
-        <v>0.037304364019726</v>
+        <v>0.03730436401972596</v>
       </c>
       <c r="E28">
-        <v>0.00158796088619153</v>
+        <v>0.001587960886191526</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>0.00482132679412656</v>
       </c>
       <c r="D29">
-        <v>0.0378493788352052</v>
+        <v>0.03784937883520516</v>
       </c>
       <c r="E29">
-        <v>0.00161116091203618</v>
+        <v>0.001611160912036176</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.00314569854233554</v>
+        <v>0.003145698542335538</v>
       </c>
       <c r="D30">
-        <v>0.0375275381474022</v>
+        <v>0.03752753814740221</v>
       </c>
       <c r="E30">
-        <v>0.00159746089496724</v>
+        <v>0.001597460894967239</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.0048433355008831</v>
+        <v>0.004843335500883101</v>
       </c>
       <c r="D31">
-        <v>0.036890975066091</v>
+        <v>0.03689097506609096</v>
       </c>
       <c r="E31">
-        <v>0.00157036387022822</v>
+        <v>0.001570363870228222</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.00432822025567489</v>
+        <v>0.004328220255674894</v>
       </c>
       <c r="D32">
-        <v>0.0381540121965923</v>
+        <v>0.03815401219659235</v>
       </c>
       <c r="E32">
         <v>0.001624128452838</v>
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.00397951457347232</v>
+        <v>0.003979514573472323</v>
       </c>
       <c r="D33">
-        <v>0.037650899298419</v>
+        <v>0.03765089929841898</v>
       </c>
       <c r="E33">
-        <v>0.00160271209513746</v>
+        <v>0.001602712095137456</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C34">
-        <v>0.0025344375691298</v>
+        <v>0.002534437569129799</v>
       </c>
       <c r="D34">
-        <v>0.0373473886413331</v>
+        <v>0.03734738864133306</v>
       </c>
       <c r="E34">
-        <v>0.00159016742899756</v>
+        <v>0.001590167428997565</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.00291475712215136</v>
+        <v>0.002914757122151364</v>
       </c>
       <c r="D35">
-        <v>0.0376149118317708</v>
+        <v>0.03761491183177076</v>
       </c>
       <c r="E35">
-        <v>0.00160155796202843</v>
+        <v>0.001601557962028427</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.00434450115885915</v>
+        <v>0.004344501158859153</v>
       </c>
       <c r="D36">
         <v>0.0382518043868728</v>
       </c>
       <c r="E36">
-        <v>0.00162867540808658</v>
+        <v>0.001628675408086582</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.0033923477672576</v>
+        <v>0.003392347767257599</v>
       </c>
       <c r="D37">
-        <v>0.0379303122168132</v>
+        <v>0.03793031221681324</v>
       </c>
       <c r="E37">
-        <v>0.00161498699783611</v>
+        <v>0.001614986997836108</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.0024689849804148</v>
+        <v>0.002468984980414803</v>
       </c>
       <c r="D38">
-        <v>0.0375980698182416</v>
+        <v>0.03759806981824157</v>
       </c>
       <c r="E38">
-        <v>0.00160084086714369</v>
+        <v>0.001600840867143693</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.00391076135765262</v>
+        <v>0.003910761357652624</v>
       </c>
       <c r="D39">
-        <v>0.0375821017542284</v>
+        <v>0.03758210175422842</v>
       </c>
       <c r="E39">
-        <v>0.00160053869130582</v>
+        <v>0.001600538691305825</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.00285971266910738</v>
+        <v>0.002859712669107385</v>
       </c>
       <c r="D40">
-        <v>0.0364759645988686</v>
+        <v>0.03647596459886859</v>
       </c>
       <c r="E40">
-        <v>0.00155343075342033</v>
+        <v>0.001553430753420334</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1335,10 +1335,10 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.00353373346596329</v>
+        <v>0.003533733465963293</v>
       </c>
       <c r="D41">
-        <v>0.0371328876882402</v>
+        <v>0.03713288768824024</v>
       </c>
       <c r="E41">
         <v>0.00158140765659162</v>
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.00370652704918419</v>
+        <v>0.003706527049184194</v>
       </c>
       <c r="D42">
-        <v>0.0374929446054355</v>
+        <v>0.03749294460543555</v>
       </c>
       <c r="E42">
-        <v>0.00159674168529529</v>
+        <v>0.001596741685295285</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.00342688550645164</v>
+        <v>0.003426885506451638</v>
       </c>
       <c r="D43">
-        <v>0.0369319367609529</v>
+        <v>0.03693193676095288</v>
       </c>
       <c r="E43">
         <v>0.001572849600518</v>
@@ -1407,17 +1407,17 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.00229421464396724</v>
+        <v>0.002294214643967243</v>
       </c>
       <c r="D44">
-        <v>0.0364348711423905</v>
+        <v>0.03643487114239047</v>
       </c>
       <c r="E44">
         <v>0.00155204711164844</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
         <v>0.00382892579558074</v>
       </c>
       <c r="D45">
-        <v>0.0377544891636501</v>
+        <v>0.03775448916365012</v>
       </c>
       <c r="E45">
         <v>0.00160825999985576</v>
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.00346053859738328</v>
+        <v>0.003460538597383278</v>
       </c>
       <c r="D46">
-        <v>0.0377755683995412</v>
+        <v>0.03777556839954123</v>
       </c>
       <c r="E46">
-        <v>0.00160953812083979</v>
+        <v>0.001609538120839786</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.00191457424648316</v>
+        <v>0.001914574246483157</v>
       </c>
       <c r="D47">
-        <v>0.0375436547734629</v>
+        <v>0.03754365477346293</v>
       </c>
       <c r="E47">
-        <v>0.00160003489006193</v>
+        <v>0.001600034890061934</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.00263551838951119</v>
+        <v>0.002635518389511186</v>
       </c>
       <c r="D48">
-        <v>0.0374316598080645</v>
+        <v>0.03743165980806452</v>
       </c>
       <c r="E48">
         <v>0.00159563915464129</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C49">
-        <v>0.00249672863501726</v>
+        <v>0.002496728635017258</v>
       </c>
       <c r="D49">
-        <v>0.0377147598527796</v>
+        <v>0.03771475985277963</v>
       </c>
       <c r="E49">
-        <v>0.00160808754856053</v>
+        <v>0.001608087548560533</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1554,10 +1554,10 @@
         <v>0.00480996754177541</v>
       </c>
       <c r="D50">
-        <v>0.0373923498343275</v>
+        <v>0.03739234983432755</v>
       </c>
       <c r="E50">
-        <v>0.00159509565707742</v>
+        <v>0.001595095657077423</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>0.0372715305814637</v>
       </c>
       <c r="E51">
-        <v>0.00158994170803736</v>
+        <v>0.001589941708037357</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.00339304712309418</v>
+        <v>0.003393047123094184</v>
       </c>
       <c r="D52">
-        <v>0.0363201840073857</v>
+        <v>0.03632018400738569</v>
       </c>
       <c r="E52">
         <v>0.00154935884027401</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.00200077368604854</v>
+        <v>0.002000773686048539</v>
       </c>
       <c r="D53">
-        <v>0.036494739561735</v>
+        <v>0.03649473956173505</v>
       </c>
       <c r="E53">
-        <v>0.00155680509085454</v>
+        <v>0.001556805090854544</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.00202066702881546</v>
+        <v>0.002020667028815463</v>
       </c>
       <c r="D54">
-        <v>0.0373975138640381</v>
+        <v>0.03739751386403808</v>
       </c>
       <c r="E54">
-        <v>0.00159531594602425</v>
+        <v>0.001595315946024248</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1671,13 +1671,13 @@
         </is>
       </c>
       <c r="C55">
-        <v>0.00311449326858373</v>
+        <v>0.003114493268583728</v>
       </c>
       <c r="D55">
-        <v>0.0370713530863483</v>
+        <v>0.03707135308634834</v>
       </c>
       <c r="E55">
-        <v>0.00158215212546699</v>
+        <v>0.001582152125466987</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.00272873846817689</v>
+        <v>0.002728738468176888</v>
       </c>
       <c r="D56">
-        <v>0.036907336960659</v>
+        <v>0.03690733696065901</v>
       </c>
       <c r="E56">
-        <v>0.00157515215270457</v>
+        <v>0.001575152152704574</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.00260829869770279</v>
+        <v>0.002608298697702792</v>
       </c>
       <c r="D57">
-        <v>0.0365826434099537</v>
+        <v>0.03658264340995374</v>
       </c>
       <c r="E57">
-        <v>0.00156166498028924</v>
+        <v>0.001561664980289241</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.00215105621420027</v>
+        <v>0.002151056214200266</v>
       </c>
       <c r="D58">
-        <v>0.03693760289742</v>
+        <v>0.03693760289742004</v>
       </c>
       <c r="E58">
-        <v>0.0015775662831124</v>
+        <v>0.001577566283112402</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.00270388073865088</v>
+        <v>0.002703880738650876</v>
       </c>
       <c r="D59">
         <v>0.0361805085717604</v>
       </c>
       <c r="E59">
-        <v>0.0015455985732306</v>
+        <v>0.001545598573230599</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1791,13 +1791,13 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.0033907042164134</v>
+        <v>0.003390704216413405</v>
       </c>
       <c r="D60">
-        <v>0.0360533904809851</v>
+        <v>0.03605339048098507</v>
       </c>
       <c r="E60">
-        <v>0.00154053416954292</v>
+        <v>0.001540534169542919</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.00229616912068459</v>
+        <v>0.002296169120684589</v>
       </c>
       <c r="D61">
-        <v>0.0364412769699539</v>
+        <v>0.03644127696995394</v>
       </c>
       <c r="E61">
-        <v>0.00155784886502329</v>
+        <v>0.001557848865023291</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="C62">
-        <v>0.0024027358425759</v>
+        <v>0.002402735842575898</v>
       </c>
       <c r="D62">
-        <v>0.0360619920928717</v>
+        <v>0.03606199209287175</v>
       </c>
       <c r="E62">
-        <v>0.00154200143770691</v>
+        <v>0.001542001437706912</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1863,13 +1863,13 @@
         </is>
       </c>
       <c r="C63">
-        <v>0.00368994384933238</v>
+        <v>0.003689943849332384</v>
       </c>
       <c r="D63">
-        <v>0.0360528483476176</v>
+        <v>0.03605284834761762</v>
       </c>
       <c r="E63">
-        <v>0.00154197745995106</v>
+        <v>0.001541977459951065</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.00165558999242524</v>
+        <v>0.001655589992425243</v>
       </c>
       <c r="D64">
-        <v>0.0359634720443142</v>
+        <v>0.03596347204431416</v>
       </c>
       <c r="E64">
-        <v>0.00153815484255843</v>
+        <v>0.001538154842558429</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1914,10 +1914,10 @@
         <v>0.00308423640569937</v>
       </c>
       <c r="D65">
-        <v>0.0365399625115569</v>
+        <v>0.03653996251155692</v>
       </c>
       <c r="E65">
-        <v>0.00156281129404858</v>
+        <v>0.001562811294048585</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="C66">
-        <v>0.00217789640063728</v>
+        <v>0.002177896400637283</v>
       </c>
       <c r="D66">
-        <v>0.035641015106895</v>
+        <v>0.03564101510689505</v>
       </c>
       <c r="E66">
-        <v>0.00152472645829683</v>
+        <v>0.001524726458296827</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C67">
-        <v>0.00262848853856627</v>
+        <v>0.002628488538566274</v>
       </c>
       <c r="D67">
-        <v>0.0357476232676058</v>
+        <v>0.03574762326760576</v>
       </c>
       <c r="E67">
-        <v>0.00153001626687604</v>
+        <v>0.001530016266876037</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="C68">
-        <v>0.00273318636037515</v>
+        <v>0.002733186360375148</v>
       </c>
       <c r="D68">
-        <v>0.035828257682682</v>
+        <v>0.03582825768268196</v>
       </c>
       <c r="E68">
-        <v>0.00153346746042289</v>
+        <v>0.001533467460422894</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="C69">
-        <v>0.0027103018142451</v>
+        <v>0.002710301814245098</v>
       </c>
       <c r="D69">
-        <v>0.0355531243033498</v>
+        <v>0.03555312430334977</v>
       </c>
       <c r="E69">
-        <v>0.00152241778449497</v>
+        <v>0.001522417784494965</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.00224540075780742</v>
+        <v>0.002245400757807417</v>
       </c>
       <c r="D70">
-        <v>0.0347088711461008</v>
+        <v>0.03470887114610083</v>
       </c>
       <c r="E70">
-        <v>0.00148662092511153</v>
+        <v>0.001486620925111533</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2058,10 +2058,10 @@
         <v>0.00395708312262797</v>
       </c>
       <c r="D71">
-        <v>0.0364001782835435</v>
+        <v>0.03640017828354349</v>
       </c>
       <c r="E71">
-        <v>0.00155943395981782</v>
+        <v>0.001559433959817817</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2079,13 +2079,13 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.00289141169478374</v>
+        <v>0.002891411694783736</v>
       </c>
       <c r="D72">
-        <v>0.0357259608681278</v>
+        <v>0.03572596086812781</v>
       </c>
       <c r="E72">
-        <v>0.00153054955365613</v>
+        <v>0.001530549553656127</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2103,13 +2103,13 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.00318673534094021</v>
+        <v>0.003186735340940215</v>
       </c>
       <c r="D73">
-        <v>0.0359920473094439</v>
+        <v>0.03599204730944388</v>
       </c>
       <c r="E73">
-        <v>0.00154231755529946</v>
+        <v>0.001542317555299461</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>0.00206633310923992</v>
+        <v>0.002066333109239915</v>
       </c>
       <c r="D74">
-        <v>0.0358211195392333</v>
+        <v>0.03582111953923326</v>
       </c>
       <c r="E74">
-        <v>0.00153536002706009</v>
+        <v>0.001535360027060089</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2151,13 +2151,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>0.0026378985075638</v>
+        <v>0.002637898507563804</v>
       </c>
       <c r="D75">
         <v>0.0364300409194274</v>
       </c>
       <c r="E75">
-        <v>0.0015614595336863</v>
+        <v>0.001561459533686295</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.00227807416905486</v>
+        <v>0.002278074169054859</v>
       </c>
       <c r="D76">
-        <v>0.0355249267069975</v>
+        <v>0.03552492670699751</v>
       </c>
       <c r="E76">
-        <v>0.00152266464956307</v>
+        <v>0.001522664649563068</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2199,13 +2199,13 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.0019169894572481</v>
+        <v>0.001916989457248097</v>
       </c>
       <c r="D77">
-        <v>0.0361947006111526</v>
+        <v>0.03619470061115262</v>
       </c>
       <c r="E77">
-        <v>0.00155137240891943</v>
+        <v>0.001551372408919428</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2223,13 +2223,13 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.00279763563773061</v>
+        <v>0.002797635637730607</v>
       </c>
       <c r="D78">
-        <v>0.0352624378813518</v>
+        <v>0.03526243788135183</v>
       </c>
       <c r="E78">
-        <v>0.00151177542771039</v>
+        <v>0.001511775427710387</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.00296359518964849</v>
+        <v>0.002963595189648495</v>
       </c>
       <c r="D79">
-        <v>0.036059060401619</v>
+        <v>0.03605906040161901</v>
       </c>
       <c r="E79">
-        <v>0.00154592832307607</v>
+        <v>0.001545928323076067</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.00228786501742912</v>
+        <v>0.002287865017429115</v>
       </c>
       <c r="D80">
-        <v>0.0359984044077323</v>
+        <v>0.03599840440773226</v>
       </c>
       <c r="E80">
-        <v>0.00154332787209733</v>
+        <v>0.001543327872097327</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.00287352508755569</v>
+        <v>0.002873525087555686</v>
       </c>
       <c r="D81">
-        <v>0.035695428158186</v>
+        <v>0.03569542815818605</v>
       </c>
       <c r="E81">
-        <v>0.00153033863831874</v>
+        <v>0.001530338638318739</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.0026682464465186</v>
+        <v>0.002668246446518605</v>
       </c>
       <c r="D82">
-        <v>0.0355148801823492</v>
+        <v>0.03551488018234922</v>
       </c>
       <c r="E82">
-        <v>0.00152296255274164</v>
+        <v>0.001522962552741635</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="C83">
-        <v>0.00215199174190109</v>
+        <v>0.002151991741901086</v>
       </c>
       <c r="D83">
-        <v>0.0360963320399038</v>
+        <v>0.03609633203990378</v>
       </c>
       <c r="E83">
-        <v>0.00154826721220063</v>
+        <v>0.001548267212200628</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="C84">
-        <v>0.00401843575565698</v>
+        <v>0.004018435755656982</v>
       </c>
       <c r="D84">
-        <v>0.0356735706942588</v>
+        <v>0.03567357069425884</v>
       </c>
       <c r="E84">
-        <v>0.00153013385922381</v>
+        <v>0.001530133859223814</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2391,13 +2391,13 @@
         </is>
       </c>
       <c r="C85">
-        <v>0.00285507144150398</v>
+        <v>0.002855071441503978</v>
       </c>
       <c r="D85">
-        <v>0.0349905220121131</v>
+        <v>0.03499052201211311</v>
       </c>
       <c r="E85">
-        <v>0.0015011956182802</v>
+        <v>0.001501195618280204</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2415,13 +2415,13 @@
         </is>
       </c>
       <c r="C86">
-        <v>0.00196522169199488</v>
+        <v>0.001965221691994883</v>
       </c>
       <c r="D86">
-        <v>0.0358773889757119</v>
+        <v>0.03587738897571194</v>
       </c>
       <c r="E86">
-        <v>0.00153961370427346</v>
+        <v>0.001539613704273463</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2439,17 +2439,17 @@
         </is>
       </c>
       <c r="C87">
-        <v>0.00177784337740881</v>
+        <v>0.001777843377408807</v>
       </c>
       <c r="D87">
-        <v>0.0347939051487874</v>
+        <v>0.03479390514878739</v>
       </c>
       <c r="E87">
-        <v>0.00149347596094819</v>
+        <v>0.001493475960948185</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2466,10 +2466,10 @@
         <v>0.00140036137658554</v>
       </c>
       <c r="D88">
-        <v>0.0355262367054485</v>
+        <v>0.03552623670544849</v>
       </c>
       <c r="E88">
-        <v>0.00152491018974889</v>
+        <v>0.001524910189748893</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.0009852426419562799</v>
+        <v>0.0009852426419562797</v>
       </c>
       <c r="D89">
-        <v>0.0354610726910278</v>
+        <v>0.03546107269102779</v>
       </c>
       <c r="E89">
-        <v>0.00152247826909072</v>
+        <v>0.001522478269090717</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2511,10 +2511,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.000717012361156045</v>
+        <v>0.0007170123611560453</v>
       </c>
       <c r="D90">
-        <v>0.035243386935787</v>
+        <v>0.03524338693578703</v>
       </c>
       <c r="E90">
         <v>0.00151313219446031</v>
@@ -2535,13 +2535,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>0.00280814391492669</v>
+        <v>0.002808143914926686</v>
       </c>
       <c r="D91">
-        <v>0.0346903662011786</v>
+        <v>0.03469036620117864</v>
       </c>
       <c r="E91">
-        <v>0.00149010411084648</v>
+        <v>0.001490104110846483</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="C92">
-        <v>0.00058970187199778</v>
+        <v>0.0005897018719977805</v>
       </c>
       <c r="D92">
-        <v>0.0347981576538482</v>
+        <v>0.03479815765384824</v>
       </c>
       <c r="E92">
         <v>0.00149509332409738</v>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C93">
-        <v>0.00151806491581506</v>
+        <v>0.001518064915815057</v>
       </c>
       <c r="D93">
-        <v>0.0354150138401821</v>
+        <v>0.03541501384018212</v>
       </c>
       <c r="E93">
-        <v>0.00152159638139398</v>
+        <v>0.001521596381393977</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="C94">
-        <v>0.000336713647013264</v>
+        <v>0.0003367136470132636</v>
       </c>
       <c r="D94">
-        <v>0.034730079573101</v>
+        <v>0.03473007957310099</v>
       </c>
       <c r="E94">
         <v>0.00149252701919903</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="C95">
-        <v>0.0008978009624869199</v>
+        <v>0.0008978009624869204</v>
       </c>
       <c r="D95">
-        <v>0.0353295294157246</v>
+        <v>0.03532952941572463</v>
       </c>
       <c r="E95">
         <v>0.00151828840810939</v>
@@ -2655,13 +2655,13 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.00236628039769963</v>
+        <v>0.002366280397699633</v>
       </c>
       <c r="D96">
-        <v>0.0355218581831383</v>
+        <v>0.03552185818313832</v>
       </c>
       <c r="E96">
-        <v>0.00152692083953715</v>
+        <v>0.001526920839537155</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2679,13 +2679,13 @@
         </is>
       </c>
       <c r="C97">
-        <v>0.00206207367751898</v>
+        <v>0.002062073677518984</v>
       </c>
       <c r="D97">
-        <v>0.034740053635534</v>
+        <v>0.03474005363553397</v>
       </c>
       <c r="E97">
-        <v>0.00149331466809118</v>
+        <v>0.001493314668091184</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2703,13 +2703,13 @@
         </is>
       </c>
       <c r="C98">
-        <v>0.00132547292982842</v>
+        <v>0.001325472929828416</v>
       </c>
       <c r="D98">
-        <v>0.0352374993489986</v>
+        <v>0.03523749934899863</v>
       </c>
       <c r="E98">
-        <v>0.00151506198145341</v>
+        <v>0.001515061981453411</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C99">
-        <v>0.00139327960174288</v>
+        <v>0.001393279601742878</v>
       </c>
       <c r="D99">
-        <v>0.0351861769666646</v>
+        <v>0.03518617696666457</v>
       </c>
       <c r="E99">
-        <v>0.00151285533819812</v>
+        <v>0.001512855338198115</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2751,13 +2751,13 @@
         </is>
       </c>
       <c r="C100">
-        <v>0.0328595882384255</v>
+        <v>0.03285958823842551</v>
       </c>
       <c r="D100">
         <v>0.0334881372122273</v>
       </c>
       <c r="E100">
-        <v>0.0014245053491241</v>
+        <v>0.001424505349124095</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2775,13 +2775,13 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.0086970638493085</v>
+        <v>0.008697063849308502</v>
       </c>
       <c r="D101">
-        <v>0.0361441660400609</v>
+        <v>0.03614416604006088</v>
       </c>
       <c r="E101">
-        <v>0.00153748646983257</v>
+        <v>0.001537486469832574</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2799,13 +2799,13 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.00618371826346663</v>
+        <v>0.006183718263466633</v>
       </c>
       <c r="D102">
         <v>0.0368529368294447</v>
       </c>
       <c r="E102">
-        <v>0.00156763588585956</v>
+        <v>0.001567635885859558</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2823,13 +2823,13 @@
         </is>
       </c>
       <c r="C103">
-        <v>0.00557323020471785</v>
+        <v>0.005573230204717852</v>
       </c>
       <c r="D103">
-        <v>0.0362429643237994</v>
+        <v>0.03624296432379941</v>
       </c>
       <c r="E103">
-        <v>0.00154168911277977</v>
+        <v>0.001541689112779774</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="C104">
-        <v>0.00425762457247169</v>
+        <v>0.004257624572471689</v>
       </c>
       <c r="D104">
-        <v>0.0353805968523495</v>
+        <v>0.03538059685234948</v>
       </c>
       <c r="E104">
-        <v>0.00150500606086184</v>
+        <v>0.001505006060861839</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.00342559553675081</v>
+        <v>0.003425595536750809</v>
       </c>
       <c r="D105">
-        <v>0.035577428303257</v>
+        <v>0.03557742830325698</v>
       </c>
       <c r="E105">
         <v>0.00151337880052534</v>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.00424450768493161</v>
+        <v>0.004244507684931608</v>
       </c>
       <c r="D106">
-        <v>0.0356772789129563</v>
+        <v>0.03567727891295633</v>
       </c>
       <c r="E106">
-        <v>0.00151762620690476</v>
+        <v>0.001517626206904758</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2919,13 +2919,13 @@
         </is>
       </c>
       <c r="C107">
-        <v>0.00223100077536952</v>
+        <v>0.002231000775369522</v>
       </c>
       <c r="D107">
-        <v>0.0356777031651767</v>
+        <v>0.03567770316517666</v>
       </c>
       <c r="E107">
-        <v>0.00151800180906998</v>
+        <v>0.001518001809069984</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2943,13 +2943,13 @@
         </is>
       </c>
       <c r="C108">
-        <v>0.00157592843536256</v>
+        <v>0.001575928435362564</v>
       </c>
       <c r="D108">
-        <v>0.0357036415224731</v>
+        <v>0.03570364152247315</v>
       </c>
       <c r="E108">
-        <v>0.00151910542476851</v>
+        <v>0.001519105424768508</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2970,10 +2970,10 @@
         <v>0.00282450026869099</v>
       </c>
       <c r="D109">
-        <v>0.034942213114244</v>
+        <v>0.03494221311424399</v>
       </c>
       <c r="E109">
-        <v>0.00148670844854451</v>
+        <v>0.001486708448544508</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>0.0022099293851267</v>
       </c>
       <c r="D110">
-        <v>0.0362118248624371</v>
+        <v>0.03621182486243706</v>
       </c>
       <c r="E110">
         <v>0.00154072742285042</v>
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="C111">
-        <v>0.00359039523712146</v>
+        <v>0.003590395237121457</v>
       </c>
       <c r="D111">
-        <v>0.0356562688738039</v>
+        <v>0.03565626887380391</v>
       </c>
       <c r="E111">
-        <v>0.00151708983071394</v>
+        <v>0.001517089830713941</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3039,13 +3039,13 @@
         </is>
       </c>
       <c r="C112">
-        <v>0.00275089119506186</v>
+        <v>0.002750891195061859</v>
       </c>
       <c r="D112">
-        <v>0.0351113995740796</v>
+        <v>0.03511139957407962</v>
       </c>
       <c r="E112">
-        <v>0.0014939069318917</v>
+        <v>0.001493906931891702</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="C113">
-        <v>0.00343965108511494</v>
+        <v>0.003439651085114936</v>
       </c>
       <c r="D113">
-        <v>0.0354255423014842</v>
+        <v>0.03542554230148418</v>
       </c>
       <c r="E113">
-        <v>0.00150762824069591</v>
+        <v>0.001507628240695905</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C114">
-        <v>0.00277889003020772</v>
+        <v>0.002778890030207722</v>
       </c>
       <c r="D114">
-        <v>0.0350667131962611</v>
+        <v>0.03506671319626113</v>
       </c>
       <c r="E114">
-        <v>0.00149235731306934</v>
+        <v>0.001492357313069337</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3111,13 +3111,13 @@
         </is>
       </c>
       <c r="C115">
-        <v>0.00208460549000057</v>
+        <v>0.002084605490000569</v>
       </c>
       <c r="D115">
-        <v>0.0357563083952029</v>
+        <v>0.03575630839520292</v>
       </c>
       <c r="E115">
-        <v>0.00152170487217585</v>
+        <v>0.001521704872175846</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3135,13 +3135,13 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.00271039665362215</v>
+        <v>0.002710396653622145</v>
       </c>
       <c r="D116">
-        <v>0.035853056479372</v>
+        <v>0.03585305647937203</v>
       </c>
       <c r="E116">
-        <v>0.00152582224440081</v>
+        <v>0.001525822244400815</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3159,13 +3159,13 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.00227183598758494</v>
+        <v>0.002271835987584942</v>
       </c>
       <c r="D117">
-        <v>0.0358739002107842</v>
+        <v>0.03587390021078419</v>
       </c>
       <c r="E117">
-        <v>0.0015267093048684</v>
+        <v>0.001526709304868401</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="C118">
-        <v>0.00187929008057576</v>
+        <v>0.001879290080575755</v>
       </c>
       <c r="D118">
-        <v>0.0351771306867944</v>
+        <v>0.03517713068679439</v>
       </c>
       <c r="E118">
-        <v>0.0014970564232644</v>
+        <v>0.001497056423264405</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>0.00163392632756186</v>
       </c>
       <c r="D119">
-        <v>0.0353636632346943</v>
+        <v>0.03536366323469432</v>
       </c>
       <c r="E119">
         <v>0.00150499481231233</v>
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.00214528546375947</v>
+        <v>0.002145285463759472</v>
       </c>
       <c r="D120">
-        <v>0.0352378874246358</v>
+        <v>0.03523788742463582</v>
       </c>
       <c r="E120">
         <v>0.0014999957354253</v>
@@ -3255,13 +3255,13 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.00360077999994632</v>
+        <v>0.003600779999946319</v>
       </c>
       <c r="D121">
-        <v>0.0353449048400959</v>
+        <v>0.03534490484009593</v>
       </c>
       <c r="E121">
-        <v>0.00150455122040293</v>
+        <v>0.001504551220402932</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3279,13 +3279,13 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.0009358245835583879</v>
+        <v>0.0009358245835583883</v>
       </c>
       <c r="D122">
-        <v>0.0350923083640298</v>
+        <v>0.03509230836402977</v>
       </c>
       <c r="E122">
-        <v>0.00149379876999872</v>
+        <v>0.001493798769998717</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="C123">
-        <v>0.00127696058017422</v>
+        <v>0.001276960580174224</v>
       </c>
       <c r="D123">
-        <v>0.0352780828480414</v>
+        <v>0.03527808284804143</v>
       </c>
       <c r="E123">
         <v>0.00150170676205313</v>
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="C124">
-        <v>0.00182506370123669</v>
+        <v>0.001825063701236691</v>
       </c>
       <c r="D124">
-        <v>0.0347597120337414</v>
+        <v>0.03475971203374142</v>
       </c>
       <c r="E124">
         <v>0.00147964090999313</v>
@@ -3351,13 +3351,13 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.00167337368098171</v>
+        <v>0.001673373680981713</v>
       </c>
       <c r="D125">
-        <v>0.0341978693515365</v>
+        <v>0.03419786935153649</v>
       </c>
       <c r="E125">
-        <v>0.0014557245606067</v>
+        <v>0.001455724560606699</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3375,13 +3375,13 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.00214341270699453</v>
+        <v>0.002143412706994528</v>
       </c>
       <c r="D126">
-        <v>0.0347398198255666</v>
+        <v>0.03473981982556661</v>
       </c>
       <c r="E126">
-        <v>0.00147879414449125</v>
+        <v>0.001478794144491247</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3399,13 +3399,13 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.00113432904112315</v>
+        <v>0.001134329041123149</v>
       </c>
       <c r="D127">
-        <v>0.0358703451390457</v>
+        <v>0.03587034513904565</v>
       </c>
       <c r="E127">
-        <v>0.00152691800414758</v>
+        <v>0.001526918004147582</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3426,10 +3426,10 @@
         <v>0.00198973976735897</v>
       </c>
       <c r="D128">
-        <v>0.0352993599399589</v>
+        <v>0.03529935993995892</v>
       </c>
       <c r="E128">
-        <v>0.00150261247886736</v>
+        <v>0.001502612478867361</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="C129">
-        <v>0.00230180208529386</v>
+        <v>0.002301802085293858</v>
       </c>
       <c r="D129">
-        <v>0.0344503562873767</v>
+        <v>0.03445035628737668</v>
       </c>
       <c r="E129">
-        <v>0.0014664723481357</v>
+        <v>0.001466472348135701</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3474,10 +3474,10 @@
         <v>0.000570405624519622</v>
       </c>
       <c r="D130">
-        <v>0.0361767932398728</v>
+        <v>0.03617679323987283</v>
       </c>
       <c r="E130">
-        <v>0.00153996279422908</v>
+        <v>0.001539962794229084</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3495,13 +3495,13 @@
         </is>
       </c>
       <c r="C131">
-        <v>-0.000242697600247411</v>
+        <v>-0.0002426976002474112</v>
       </c>
       <c r="D131">
-        <v>0.0347030290879241</v>
+        <v>0.03470302908792407</v>
       </c>
       <c r="E131">
-        <v>0.00147722804749735</v>
+        <v>0.001477228047497351</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3519,13 +3519,13 @@
         </is>
       </c>
       <c r="C132">
-        <v>8.20777720605313e-05</v>
+        <v>8.207777206053134e-05</v>
       </c>
       <c r="D132">
-        <v>0.035434622391198</v>
+        <v>0.03543462239119795</v>
       </c>
       <c r="E132">
-        <v>0.00150872616359984</v>
+        <v>0.001508726163599843</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3543,13 +3543,13 @@
         </is>
       </c>
       <c r="C133">
-        <v>0.000155009649792323</v>
+        <v>0.0001550096497923231</v>
       </c>
       <c r="D133">
-        <v>0.0355127617217468</v>
+        <v>0.03551276172174679</v>
       </c>
       <c r="E133">
-        <v>0.0015120531597536</v>
+        <v>0.001512053159753596</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.000753610305856785</v>
+        <v>0.0007536103058567848</v>
       </c>
       <c r="D134">
-        <v>0.0353418523980849</v>
+        <v>0.03534185239808489</v>
       </c>
       <c r="E134">
-        <v>0.00150477622688932</v>
+        <v>0.001504776226889316</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3591,13 +3591,13 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.00166354790468876</v>
+        <v>0.001663547904688758</v>
       </c>
       <c r="D135">
-        <v>0.0354999755454448</v>
+        <v>0.03549997554544484</v>
       </c>
       <c r="E135">
-        <v>0.0015115087532546</v>
+        <v>0.001511508753254603</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3615,10 +3615,10 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.00126183060445802</v>
+        <v>0.001261830604458024</v>
       </c>
       <c r="D136">
-        <v>0.0343831443607483</v>
+        <v>0.03438314436074834</v>
       </c>
       <c r="E136">
         <v>0.00146395660467874</v>
@@ -3642,10 +3642,10 @@
         <v>0.00128628516441294</v>
       </c>
       <c r="D137">
-        <v>0.0339670951520094</v>
+        <v>0.03396709515200941</v>
       </c>
       <c r="E137">
-        <v>0.0014465835460078</v>
+        <v>0.001446583546007796</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3663,13 +3663,13 @@
         </is>
       </c>
       <c r="C138">
-        <v>0.000881118463722801</v>
+        <v>0.0008811184637228011</v>
       </c>
       <c r="D138">
-        <v>0.0347364941292084</v>
+        <v>0.03473649412920841</v>
       </c>
       <c r="E138">
-        <v>0.00147935054877181</v>
+        <v>0.001479350548771806</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="C139">
-        <v>0.00136895598515686</v>
+        <v>0.001368955985156863</v>
       </c>
       <c r="D139">
-        <v>0.0350540193907934</v>
+        <v>0.03505401939079339</v>
       </c>
       <c r="E139">
-        <v>0.00149287324821947</v>
+        <v>0.001492873248219465</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3711,13 +3711,13 @@
         </is>
       </c>
       <c r="C140">
-        <v>0.00114972172961938</v>
+        <v>0.001149721729619383</v>
       </c>
       <c r="D140">
-        <v>0.0342275866375313</v>
+        <v>0.03422758663753126</v>
       </c>
       <c r="E140">
-        <v>0.00145767730292592</v>
+        <v>0.001457677302925916</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3735,13 +3735,13 @@
         </is>
       </c>
       <c r="C141">
-        <v>0.000693298381367302</v>
+        <v>0.0006932983813673025</v>
       </c>
       <c r="D141">
-        <v>0.035387571486823</v>
+        <v>0.03538757148682298</v>
       </c>
       <c r="E141">
-        <v>0.00150707849514133</v>
+        <v>0.001507078495141331</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3762,10 +3762,10 @@
         <v>0.00204151090464996</v>
       </c>
       <c r="D142">
-        <v>0.0348660193536662</v>
+        <v>0.03486601935366618</v>
       </c>
       <c r="E142">
-        <v>0.00148521740123783</v>
+        <v>0.001485217401237826</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3783,13 +3783,13 @@
         </is>
       </c>
       <c r="C143">
-        <v>0.000321327704164156</v>
+        <v>0.0003213277041641561</v>
       </c>
       <c r="D143">
-        <v>0.0344762480866679</v>
+        <v>0.03447624808666789</v>
       </c>
       <c r="E143">
-        <v>0.00146861398395705</v>
+        <v>0.001468613983957054</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C144">
-        <v>0.00115437040193945</v>
+        <v>0.001154370401939451</v>
       </c>
       <c r="D144">
-        <v>0.0346247889443926</v>
+        <v>0.03462478894439262</v>
       </c>
       <c r="E144">
-        <v>0.00147528998485457</v>
+        <v>0.001475289984854568</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3831,10 +3831,10 @@
         </is>
       </c>
       <c r="C145">
-        <v>0.00145756291136087</v>
+        <v>0.001457562911360871</v>
       </c>
       <c r="D145">
-        <v>0.0345731312821363</v>
+        <v>0.03457313128213626</v>
       </c>
       <c r="E145">
         <v>0.00147343716651716</v>
@@ -3855,13 +3855,13 @@
         </is>
       </c>
       <c r="C146">
-        <v>0.000669509234867857</v>
+        <v>0.0006695092348678574</v>
       </c>
       <c r="D146">
-        <v>0.0352530262246638</v>
+        <v>0.03525302622466383</v>
       </c>
       <c r="E146">
-        <v>0.00150276822486912</v>
+        <v>0.001502768224869117</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3879,13 +3879,13 @@
         </is>
       </c>
       <c r="C147">
-        <v>0.00151652690893512</v>
+        <v>0.001516526908935117</v>
       </c>
       <c r="D147">
-        <v>0.0353869515470607</v>
+        <v>0.03538695154706072</v>
       </c>
       <c r="E147">
-        <v>0.001508834111273</v>
+        <v>0.001508834111272996</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3903,13 +3903,13 @@
         </is>
       </c>
       <c r="C148">
-        <v>0.000420090059087659</v>
+        <v>0.0004200900590876595</v>
       </c>
       <c r="D148">
-        <v>0.0345222791333918</v>
+        <v>0.03452227913339177</v>
       </c>
       <c r="E148">
-        <v>0.00147266319881119</v>
+        <v>0.001472663198811187</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="C149">
-        <v>0.000278850611861586</v>
+        <v>0.0002788506118615859</v>
       </c>
       <c r="D149">
-        <v>0.0339750561079893</v>
+        <v>0.03397505610798931</v>
       </c>
       <c r="E149">
-        <v>0.00144931957170191</v>
+        <v>0.001449319571701909</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="C150">
-        <v>-0.00114216687327632</v>
+        <v>-0.001142166873276316</v>
       </c>
       <c r="D150">
-        <v>0.0345493032516014</v>
+        <v>0.03454930325160135</v>
       </c>
       <c r="E150">
-        <v>0.001473816002895</v>
+        <v>0.001473816002895002</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3975,13 +3975,13 @@
         </is>
       </c>
       <c r="C151">
-        <v>5.51285480116951e-05</v>
+        <v>5.512854801169514e-05</v>
       </c>
       <c r="D151">
-        <v>0.034750287802983</v>
+        <v>0.03475028780298296</v>
       </c>
       <c r="E151">
-        <v>0.00148238967067648</v>
+        <v>0.001482389670676483</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3999,13 +3999,13 @@
         </is>
       </c>
       <c r="C152">
-        <v>0.000786179905169241</v>
+        <v>0.0007861799051692407</v>
       </c>
       <c r="D152">
-        <v>0.0336657486645922</v>
+        <v>0.03366574866459222</v>
       </c>
       <c r="E152">
-        <v>0.00143612502891841</v>
+        <v>0.001436125028918414</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="C153">
-        <v>0.0013402498805252</v>
+        <v>0.001340249880525195</v>
       </c>
       <c r="D153">
-        <v>0.0349274334523472</v>
+        <v>0.03492743345234723</v>
       </c>
       <c r="E153">
-        <v>0.00149065271356626</v>
+        <v>0.001490652713566255</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="C154">
-        <v>0.000664393738839247</v>
+        <v>0.0006643937388392475</v>
       </c>
       <c r="D154">
-        <v>0.0351353293055288</v>
+        <v>0.03513532930552875</v>
       </c>
       <c r="E154">
-        <v>0.00149952541009883</v>
+        <v>0.001499525410098825</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4071,13 +4071,13 @@
         </is>
       </c>
       <c r="C155">
-        <v>0.000199226678845622</v>
+        <v>0.0001992266788456222</v>
       </c>
       <c r="D155">
         <v>0.034756563533582</v>
       </c>
       <c r="E155">
-        <v>0.00148371202970053</v>
+        <v>0.001483712029700527</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="C156">
-        <v>0.000188670636872051</v>
+        <v>0.0001886706368720512</v>
       </c>
       <c r="D156">
-        <v>0.0340368323845317</v>
+        <v>0.03403683238453174</v>
       </c>
       <c r="E156">
-        <v>0.00145367741655851</v>
+        <v>0.001453677416558507</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4119,13 +4119,13 @@
         </is>
       </c>
       <c r="C157">
-        <v>0.00173603219921894</v>
+        <v>0.001736032199218936</v>
       </c>
       <c r="D157">
-        <v>0.03525473006813</v>
+        <v>0.03525473006812999</v>
       </c>
       <c r="E157">
-        <v>0.00150605015363056</v>
+        <v>0.001506050153630561</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4143,13 +4143,13 @@
         </is>
       </c>
       <c r="C158">
-        <v>0.000760738225331253</v>
+        <v>0.0007607382253312532</v>
       </c>
       <c r="D158">
-        <v>0.0336612001028907</v>
+        <v>0.03366120010289066</v>
       </c>
       <c r="E158">
-        <v>0.00143831767982194</v>
+        <v>0.001438317679821935</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4167,17 +4167,17 @@
         </is>
       </c>
       <c r="C159">
-        <v>0.00133273645751049</v>
+        <v>0.001332736457510489</v>
       </c>
       <c r="D159">
-        <v>0.0345714244115754</v>
+        <v>0.03457142441157544</v>
       </c>
       <c r="E159">
-        <v>0.0014779134750469</v>
+        <v>0.001477913475046903</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>&gt; 0.05</t>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4191,13 +4191,13 @@
         </is>
       </c>
       <c r="C160">
-        <v>0.000180740389410233</v>
+        <v>0.0001807403894102332</v>
       </c>
       <c r="D160">
-        <v>0.0348652889418723</v>
+        <v>0.03486528894187228</v>
       </c>
       <c r="E160">
-        <v>0.00149083072105329</v>
+        <v>0.001490830721053288</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4215,13 +4215,13 @@
         </is>
       </c>
       <c r="C161">
-        <v>0.000983437909779227</v>
+        <v>0.0009834379097792274</v>
       </c>
       <c r="D161">
-        <v>0.0351553835256861</v>
+        <v>0.03515538352568606</v>
       </c>
       <c r="E161">
-        <v>0.00150359296080763</v>
+        <v>0.001503592960807632</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4239,13 +4239,13 @@
         </is>
       </c>
       <c r="C162">
-        <v>-0.000684664798919444</v>
+        <v>-0.0006846647989194439</v>
       </c>
       <c r="D162">
         <v>0.0337980913308219</v>
       </c>
       <c r="E162">
-        <v>0.00144554168145049</v>
+        <v>0.001445541681450495</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4266,10 +4266,10 @@
         <v>0.0007922630502356399</v>
       </c>
       <c r="D163">
-        <v>0.0340702816884656</v>
+        <v>0.03407028168846562</v>
       </c>
       <c r="E163">
-        <v>0.00145718324142534</v>
+        <v>0.001457183241425335</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="C164">
-        <v>-0.000433583997746738</v>
+        <v>-0.0004335839977467376</v>
       </c>
       <c r="D164">
-        <v>0.033670263031233</v>
+        <v>0.03367026303123296</v>
       </c>
       <c r="E164">
-        <v>0.00144041747261016</v>
+        <v>0.001440417472610164</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4311,13 +4311,13 @@
         </is>
       </c>
       <c r="C165">
-        <v>0.000492182921476016</v>
+        <v>0.0004921829214760161</v>
       </c>
       <c r="D165">
-        <v>0.0339467368364631</v>
+        <v>0.03394673683646313</v>
       </c>
       <c r="E165">
-        <v>0.00145293742127509</v>
+        <v>0.001452937421275092</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>0.0353761533933141</v>
       </c>
       <c r="E166">
-        <v>0.00151411716930343</v>
+        <v>0.001514117169303425</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4362,10 +4362,10 @@
         <v>0.0008580288703059331</v>
       </c>
       <c r="D167">
-        <v>0.0345965171017813</v>
+        <v>0.03459651710178133</v>
       </c>
       <c r="E167">
-        <v>0.00148145497616291</v>
+        <v>0.001481454976162913</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="C168">
-        <v>0.00131635257309794</v>
+        <v>0.001316352573097942</v>
       </c>
       <c r="D168">
-        <v>0.0344859457667994</v>
+        <v>0.03448594576679939</v>
       </c>
       <c r="E168">
         <v>0.00147707277437471</v>
@@ -4407,13 +4407,13 @@
         </is>
       </c>
       <c r="C169">
-        <v>0.000870597284611036</v>
+        <v>0.0008705972846110357</v>
       </c>
       <c r="D169">
-        <v>0.033844990440994</v>
+        <v>0.03384499044099401</v>
       </c>
       <c r="E169">
-        <v>0.00144996618017272</v>
+        <v>0.001449966180172717</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="C170">
-        <v>9.05624636315044e-05</v>
+        <v>9.056246363150442e-05</v>
       </c>
       <c r="D170">
-        <v>0.0333658783452819</v>
+        <v>0.03336587834528189</v>
       </c>
       <c r="E170">
         <v>0.00142944035563436</v>
@@ -4455,13 +4455,13 @@
         </is>
       </c>
       <c r="C171">
-        <v>0.000735542936241106</v>
+        <v>0.0007355429362411064</v>
       </c>
       <c r="D171">
-        <v>0.0346605495224801</v>
+        <v>0.03466054952248005</v>
       </c>
       <c r="E171">
-        <v>0.00148526071732576</v>
+        <v>0.001485260717325761</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4479,13 +4479,13 @@
         </is>
       </c>
       <c r="C172">
-        <v>0.00116698702915405</v>
+        <v>0.001166987029154049</v>
       </c>
       <c r="D172">
-        <v>0.0343951906686594</v>
+        <v>0.03439519066865945</v>
       </c>
       <c r="E172">
-        <v>0.00147424205482831</v>
+        <v>0.001474242054828314</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4503,13 +4503,13 @@
         </is>
       </c>
       <c r="C173">
-        <v>0.00208207960582166</v>
+        <v>0.002082079605821661</v>
       </c>
       <c r="D173">
         <v>0.0350938981189998</v>
       </c>
       <c r="E173">
-        <v>0.0015041899599653</v>
+        <v>0.001504189959965301</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4527,13 +4527,13 @@
         </is>
       </c>
       <c r="C174">
-        <v>0.000763208025071006</v>
+        <v>0.0007632080250710065</v>
       </c>
       <c r="D174">
-        <v>0.0337446408016347</v>
+        <v>0.03374464080163471</v>
       </c>
       <c r="E174">
-        <v>0.00144635827357616</v>
+        <v>0.001446358273576165</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="C175">
-        <v>0.00147238075063902</v>
+        <v>0.001472380750639018</v>
       </c>
       <c r="D175">
-        <v>0.0338745641384752</v>
+        <v>0.03387456413847523</v>
       </c>
       <c r="E175">
-        <v>0.00145192703023517</v>
+        <v>0.001451927030235172</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4575,13 +4575,13 @@
         </is>
       </c>
       <c r="C176">
-        <v>-0.000193646357336886</v>
+        <v>-0.0001936463573368857</v>
       </c>
       <c r="D176">
-        <v>0.0339018652233833</v>
+        <v>0.03390186522338327</v>
       </c>
       <c r="E176">
-        <v>0.00145344479501697</v>
+        <v>0.001453444795016972</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4599,13 +4599,13 @@
         </is>
       </c>
       <c r="C177">
-        <v>0.000246044633016544</v>
+        <v>0.0002460446330165441</v>
       </c>
       <c r="D177">
-        <v>0.0334711342072445</v>
+        <v>0.03347113420724451</v>
       </c>
       <c r="E177">
-        <v>0.00143497844370166</v>
+        <v>0.001434978443701663</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4626,10 +4626,10 @@
         <v>0.0009813984131421261</v>
       </c>
       <c r="D178">
-        <v>0.0340333418105987</v>
+        <v>0.03403334181059875</v>
       </c>
       <c r="E178">
-        <v>0.00145908147488977</v>
+        <v>0.001459081474889769</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C179">
-        <v>0.00101994215803361</v>
+        <v>0.001019942158033613</v>
       </c>
       <c r="D179">
-        <v>0.0347031098244778</v>
+        <v>0.03470310982447779</v>
       </c>
       <c r="E179">
-        <v>0.00148779584878121</v>
+        <v>0.001487795848781207</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="C180">
-        <v>-2.64801722867651e-05</v>
+        <v>-2.648017228676514e-05</v>
       </c>
       <c r="D180">
-        <v>0.0336258885220365</v>
+        <v>0.03362588852203655</v>
       </c>
       <c r="E180">
-        <v>0.00144195809640316</v>
+        <v>0.001441958096403155</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4695,10 +4695,10 @@
         </is>
       </c>
       <c r="C181">
-        <v>0.00109331496672211</v>
+        <v>0.001093314966722111</v>
       </c>
       <c r="D181">
-        <v>0.034145251905579</v>
+        <v>0.03414525190557902</v>
       </c>
       <c r="E181">
         <v>0.00146458022159417</v>
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="C182">
-        <v>0.0010345608112663</v>
+        <v>0.001034560811266297</v>
       </c>
       <c r="D182">
-        <v>0.0343231666141997</v>
+        <v>0.03432316661419973</v>
       </c>
       <c r="E182">
-        <v>0.00147221145430837</v>
+        <v>0.001472211454308374</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4743,13 +4743,13 @@
         </is>
       </c>
       <c r="C183">
-        <v>0.00138171733792211</v>
+        <v>0.001381717337922108</v>
       </c>
       <c r="D183">
-        <v>0.0340847708643285</v>
+        <v>0.03408477086432851</v>
       </c>
       <c r="E183">
-        <v>0.00146233624791026</v>
+        <v>0.001462336247910257</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="C184">
-        <v>0.00115269422942078</v>
+        <v>0.001152694229420778</v>
       </c>
       <c r="D184">
-        <v>0.0330606786884431</v>
+        <v>0.03306067868844314</v>
       </c>
       <c r="E184">
-        <v>0.00141873964172162</v>
+        <v>0.001418739641721618</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4791,13 +4791,13 @@
         </is>
       </c>
       <c r="C185">
-        <v>0.000880738164059683</v>
+        <v>0.0008807381640596833</v>
       </c>
       <c r="D185">
-        <v>0.0331851464488679</v>
+        <v>0.03318514644886791</v>
       </c>
       <c r="E185">
-        <v>0.00142442241737434</v>
+        <v>0.001424422417374341</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4818,10 +4818,10 @@
         <v>0.00053382625252718</v>
       </c>
       <c r="D186">
-        <v>0.0338393142075547</v>
+        <v>0.03383931420755469</v>
       </c>
       <c r="E186">
-        <v>0.00145250158290199</v>
+        <v>0.001452501582901988</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4839,13 +4839,13 @@
         </is>
       </c>
       <c r="C187">
-        <v>0.00108966063133167</v>
+        <v>0.001089660631331673</v>
       </c>
       <c r="D187">
-        <v>0.0331769021951353</v>
+        <v>0.03317690219513534</v>
       </c>
       <c r="E187">
-        <v>0.00142441017134323</v>
+        <v>0.001424410171343232</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4863,13 +4863,13 @@
         </is>
       </c>
       <c r="C188">
-        <v>0.0011515686644228</v>
+        <v>0.001151568664422796</v>
       </c>
       <c r="D188">
-        <v>0.0337812979609004</v>
+        <v>0.03378129796090043</v>
       </c>
       <c r="E188">
-        <v>0.00145035917258539</v>
+        <v>0.001450359172585391</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4887,10 +4887,10 @@
         </is>
       </c>
       <c r="C189">
-        <v>0.00129277101132737</v>
+        <v>0.001292771011327374</v>
       </c>
       <c r="D189">
-        <v>0.0336712938426409</v>
+        <v>0.03367129384264093</v>
       </c>
       <c r="E189">
         <v>0.00144633046193483</v>
@@ -4914,10 +4914,10 @@
         <v>-0.000902789809912508</v>
       </c>
       <c r="D190">
-        <v>0.034201240429857</v>
+        <v>0.03420124042985703</v>
       </c>
       <c r="E190">
-        <v>0.00146944693886327</v>
+        <v>0.001469446938863267</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4938,10 +4938,10 @@
         <v>0.00029381003056342</v>
       </c>
       <c r="D191">
-        <v>0.0334992704418195</v>
+        <v>0.03349927044181948</v>
       </c>
       <c r="E191">
-        <v>0.00143928699036049</v>
+        <v>0.001439286990360487</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4959,13 +4959,13 @@
         </is>
       </c>
       <c r="C192">
-        <v>-0.000304737364377624</v>
+        <v>-0.0003047373643776242</v>
       </c>
       <c r="D192">
-        <v>0.0332615256417018</v>
+        <v>0.03326152564170182</v>
       </c>
       <c r="E192">
-        <v>0.00142941583578954</v>
+        <v>0.001429415835789538</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4983,13 +4983,13 @@
         </is>
       </c>
       <c r="C193">
-        <v>0.000776232917948141</v>
+        <v>0.0007762329179481412</v>
       </c>
       <c r="D193">
-        <v>0.0337629172714288</v>
+        <v>0.03376291727142876</v>
       </c>
       <c r="E193">
-        <v>0.00145096316777859</v>
+        <v>0.001450963167778588</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C194">
-        <v>-0.000265617358464429</v>
+        <v>-0.0002656173584644293</v>
       </c>
       <c r="D194">
-        <v>0.0330575085474708</v>
+        <v>0.03305750854747084</v>
       </c>
       <c r="E194">
-        <v>0.00142098981545597</v>
+        <v>0.001420989815455969</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5034,10 +5034,10 @@
         <v>0.000520525643804167</v>
       </c>
       <c r="D195">
-        <v>0.0334870710452036</v>
+        <v>0.03348707104520357</v>
       </c>
       <c r="E195">
-        <v>0.00143945472588633</v>
+        <v>0.001439454725886333</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5055,13 +5055,13 @@
         </is>
       </c>
       <c r="C196">
-        <v>8.96622979952818e-06</v>
+        <v>8.966229799528175e-06</v>
       </c>
       <c r="D196">
-        <v>0.0342373515245052</v>
+        <v>0.03423735152450521</v>
       </c>
       <c r="E196">
-        <v>0.00147205989638161</v>
+        <v>0.001472059896381606</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5079,13 +5079,13 @@
         </is>
       </c>
       <c r="C197">
-        <v>0.000127343287180305</v>
+        <v>0.0001273432871803052</v>
       </c>
       <c r="D197">
-        <v>0.0334157905955262</v>
+        <v>0.03341579059552618</v>
       </c>
       <c r="E197">
-        <v>0.00143673628511692</v>
+        <v>0.001436736285116919</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
